--- a/Code/finalCode/static/Templates/NEFT/data.xlsx
+++ b/Code/finalCode/static/Templates/NEFT/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>b8b90549-537b-4288-bd7f-19c082f2feac</t>
+          <t>29ec4dc0-b69c-4a17-a031-a03ad81513ad</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -628,7 +628,8 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ten  Thousand only  </t>
+          <t xml:space="preserve">Ten  Thousand
+only  </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -659,276 +660,110 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">07/10/2024  </t>
+          <t xml:space="preserve">07102024  </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">S. RAMESH BABU  </t>
+          <t xml:space="preserve">S. RAMESH BABO  </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO 64 SANNATHI STREET  THIRUBHUVANAM  </t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9004412340  </t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R. RADHIKA  </t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CITY UNION BANK  </t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LIUB
-000511A  </t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KUMBAKONAM  </t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S. Ramesh Babe
-Signature  </t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Signature  </t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Signature  </t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">THEPPERUMANALLUR  </t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>38799a53-0fc9-4c89-95c6-d9e1986d39cf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">07102024  </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">THEPPERUMANALLUR  </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="E3">
-        <f> 10000  </f>
-        <v/>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ten  Thousand
-only  </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5001010111066753  5001010
-0078690  </t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0000123  </t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">07102024  </t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S. RAMESH BABO  </t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
         <is>
           <t xml:space="preserve">NO
 64
 SANNATHI STREET  THIRUBHUVANAM  </t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t xml:space="preserve">9004412340  </t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t xml:space="preserve">R. RADHIKA  </t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t xml:space="preserve">CITY UNION BANK  </t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t xml:space="preserve">LIUB
 000511A  </t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t xml:space="preserve">KUMBAKONAM  </t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t xml:space="preserve">S. Ramesh Babe
 Signature  </t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t xml:space="preserve">Signature  </t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t xml:space="preserve">Signature  </t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t xml:space="preserve">    </t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t xml:space="preserve">THEPPERUMANALLUR  </t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t xml:space="preserve">  </t>
         </is>
